--- a/SeleniumPoiforGetHub/testData/inputData.xlsx
+++ b/SeleniumPoiforGetHub/testData/inputData.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>invalid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>seleniumpoi</t>
   </si>
@@ -42,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -51,6 +48,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -87,14 +98,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,7 +446,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -438,26 +457,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -465,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
